--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W5_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W5_H100_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5498489425981873</v>
+        <v>0.4894259818731118</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08674815450353859</v>
+        <v>0.08255557105559368</v>
       </c>
       <c r="J2" t="n">
-        <v>1128.461298165506</v>
+        <v>1095.207623827633</v>
       </c>
       <c r="K2" t="n">
-        <v>1650223.667980767</v>
+        <v>1644928.653691044</v>
       </c>
       <c r="L2" t="n">
-        <v>1284.610317559674</v>
+        <v>1282.547719849458</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6915015583454978</v>
+        <v>0.6924914263789119</v>
       </c>
     </row>
   </sheetData>
